--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itga10</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itga10</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H2">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I2">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J2">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N2">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O2">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P2">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q2">
-        <v>0.01035014195333333</v>
+        <v>0.06161819724444444</v>
       </c>
       <c r="R2">
-        <v>0.09315127758</v>
+        <v>0.5545637752</v>
       </c>
       <c r="S2">
-        <v>0.0005590877425885195</v>
+        <v>0.004484358329803478</v>
       </c>
       <c r="T2">
-        <v>0.0005590877425885194</v>
+        <v>0.004484358329803479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H3">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I3">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J3">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.590839</v>
       </c>
       <c r="O3">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P3">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q3">
-        <v>0.01197954794966666</v>
+        <v>0.0429827021811111</v>
       </c>
       <c r="R3">
-        <v>0.107815931547</v>
+        <v>0.38684431963</v>
       </c>
       <c r="S3">
-        <v>0.0006471040156365245</v>
+        <v>0.003128131740022728</v>
       </c>
       <c r="T3">
-        <v>0.0006471040156365246</v>
+        <v>0.003128131740022729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H4">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I4">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J4">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N4">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O4">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P4">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q4">
-        <v>0.002033897851333333</v>
+        <v>0.007190185654444445</v>
       </c>
       <c r="R4">
-        <v>0.018305080662</v>
+        <v>0.06471167089</v>
       </c>
       <c r="S4">
-        <v>0.0001098658707759437</v>
+        <v>0.0005232767327552496</v>
       </c>
       <c r="T4">
-        <v>0.0001098658707759437</v>
+        <v>0.0005232767327552497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H5">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I5">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J5">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N5">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O5">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P5">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q5">
-        <v>0.034540938679</v>
+        <v>0.04109875611555556</v>
       </c>
       <c r="R5">
-        <v>0.310868448111</v>
+        <v>0.36988880504</v>
       </c>
       <c r="S5">
-        <v>0.001865811649734061</v>
+        <v>0.002991024690323441</v>
       </c>
       <c r="T5">
-        <v>0.001865811649734061</v>
+        <v>0.002991024690323442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,46 +791,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H6">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I6">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J6">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N6">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O6">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P6">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q6">
-        <v>0.005937667833333333</v>
+        <v>0.01903110563444444</v>
       </c>
       <c r="R6">
-        <v>0.0534390105</v>
+        <v>0.17127995071</v>
       </c>
       <c r="S6">
-        <v>0.0003207373696077351</v>
+        <v>0.001385017752769217</v>
       </c>
       <c r="T6">
-        <v>0.0003207373696077351</v>
+        <v>0.001385017752769218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H7">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I7">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J7">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N7">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O7">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P7">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q7">
-        <v>0.005512520274000001</v>
+        <v>0.02091737532444444</v>
       </c>
       <c r="R7">
-        <v>0.04961268246600001</v>
+        <v>0.18825637792</v>
       </c>
       <c r="S7">
-        <v>0.000297772004467198</v>
+        <v>0.001522293907783148</v>
       </c>
       <c r="T7">
-        <v>0.000297772004467198</v>
+        <v>0.001522293907783149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H8">
         <v>16.449865</v>
       </c>
       <c r="I8">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J8">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N8">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O8">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P8">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q8">
-        <v>2.512186827544445</v>
+        <v>4.168322680488889</v>
       </c>
       <c r="R8">
-        <v>22.60968144790001</v>
+        <v>37.5149041244</v>
       </c>
       <c r="S8">
-        <v>0.1357017970096631</v>
+        <v>0.3033560436603721</v>
       </c>
       <c r="T8">
-        <v>0.1357017970096631</v>
+        <v>0.3033560436603722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H9">
         <v>16.449865</v>
       </c>
       <c r="I9">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J9">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.590839</v>
       </c>
       <c r="O9">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P9">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q9">
         <v>2.907676309637222</v>
@@ -1013,10 +1013,10 @@
         <v>26.169086786735</v>
       </c>
       <c r="S9">
-        <v>0.1570651099726841</v>
+        <v>0.2116105803577291</v>
       </c>
       <c r="T9">
-        <v>0.1570651099726841</v>
+        <v>0.2116105803577291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H10">
         <v>16.449865</v>
       </c>
       <c r="I10">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J10">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N10">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O10">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P10">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q10">
-        <v>0.4936677597011112</v>
+        <v>0.4863987471338889</v>
       </c>
       <c r="R10">
-        <v>4.443009837310001</v>
+        <v>4.377588724204999</v>
       </c>
       <c r="S10">
-        <v>0.02666664811018723</v>
+        <v>0.03539841103534537</v>
       </c>
       <c r="T10">
-        <v>0.02666664811018723</v>
+        <v>0.03539841103534538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H11">
         <v>16.449865</v>
       </c>
       <c r="I11">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J11">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N11">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O11">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P11">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q11">
-        <v>8.383777879728335</v>
+        <v>2.780231894431111</v>
       </c>
       <c r="R11">
-        <v>75.45400091755501</v>
+        <v>25.02208704988</v>
       </c>
       <c r="S11">
-        <v>0.452869870797406</v>
+        <v>0.2023356185692619</v>
       </c>
       <c r="T11">
-        <v>0.452869870797406</v>
+        <v>0.202335618569262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H12">
         <v>16.449865</v>
       </c>
       <c r="I12">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J12">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N12">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O12">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P12">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q12">
-        <v>1.441190950277778</v>
+        <v>1.287408473443889</v>
       </c>
       <c r="R12">
-        <v>12.9707185525</v>
+        <v>11.586676260995</v>
       </c>
       <c r="S12">
-        <v>0.07784938589854876</v>
+        <v>0.0936931161560102</v>
       </c>
       <c r="T12">
-        <v>0.07784938589854877</v>
+        <v>0.09369311615601024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H13">
         <v>16.449865</v>
       </c>
       <c r="I13">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J13">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N13">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O13">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P13">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q13">
-        <v>1.33799911937</v>
+        <v>1.415010076248889</v>
       </c>
       <c r="R13">
-        <v>12.04199207433</v>
+        <v>12.73509068624</v>
       </c>
       <c r="S13">
-        <v>0.07227523164482619</v>
+        <v>0.1029795175118445</v>
       </c>
       <c r="T13">
-        <v>0.07227523164482617</v>
+        <v>0.1029795175118446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H14">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I14">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J14">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N14">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O14">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P14">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q14">
-        <v>0.1516785333</v>
+        <v>0.1606636782311111</v>
       </c>
       <c r="R14">
-        <v>1.3651067997</v>
+        <v>1.44597310408</v>
       </c>
       <c r="S14">
-        <v>0.00819327977956125</v>
+        <v>0.01169254434553435</v>
       </c>
       <c r="T14">
-        <v>0.00819327977956125</v>
+        <v>0.01169254434553435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H15">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I15">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J15">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.590839</v>
       </c>
       <c r="O15">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P15">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q15">
-        <v>0.175557037845</v>
+        <v>0.1120733702307778</v>
       </c>
       <c r="R15">
-        <v>1.580013340605</v>
+        <v>1.008660332077</v>
       </c>
       <c r="S15">
-        <v>0.009483134475530343</v>
+        <v>0.008156310535177987</v>
       </c>
       <c r="T15">
-        <v>0.009483134475530345</v>
+        <v>0.00815631053517799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H16">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I16">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J16">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N16">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O16">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P16">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q16">
-        <v>0.02980622337</v>
+        <v>0.01874773567011111</v>
       </c>
       <c r="R16">
-        <v>0.26825601033</v>
+        <v>0.168729621031</v>
       </c>
       <c r="S16">
-        <v>0.001610054646028852</v>
+        <v>0.001364395071210827</v>
       </c>
       <c r="T16">
-        <v>0.001610054646028852</v>
+        <v>0.001364395071210827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H17">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I17">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J17">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N17">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O17">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P17">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q17">
-        <v>0.506188121985</v>
+        <v>0.1071611573128889</v>
       </c>
       <c r="R17">
-        <v>4.555693097865</v>
+        <v>0.964450415816</v>
       </c>
       <c r="S17">
-        <v>0.0273429655092385</v>
+        <v>0.00779881674436298</v>
       </c>
       <c r="T17">
-        <v>0.02734296550923851</v>
+        <v>0.007798816744362983</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H18">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I18">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J18">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N18">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O18">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P18">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q18">
-        <v>0.0870149175</v>
+        <v>0.04962182551211111</v>
       </c>
       <c r="R18">
-        <v>0.7831342575</v>
+        <v>0.446596429609</v>
       </c>
       <c r="S18">
-        <v>0.004700319475418742</v>
+        <v>0.003611304071304244</v>
       </c>
       <c r="T18">
-        <v>0.004700319475418743</v>
+        <v>0.003611304071304245</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H19">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I19">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J19">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N19">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O19">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P19">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q19">
-        <v>0.08078449491000002</v>
+        <v>0.05454009706311112</v>
       </c>
       <c r="R19">
-        <v>0.7270604541900001</v>
+        <v>0.490860873568</v>
       </c>
       <c r="S19">
-        <v>0.004363768255452743</v>
+        <v>0.003969238788388991</v>
       </c>
       <c r="T19">
-        <v>0.004363768255452743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.32239</v>
-      </c>
-      <c r="I20">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J20">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.4581533333333334</v>
-      </c>
-      <c r="N20">
-        <v>1.37446</v>
-      </c>
-      <c r="O20">
-        <v>0.1471136940986479</v>
-      </c>
-      <c r="P20">
-        <v>0.1471136940986479</v>
-      </c>
-      <c r="Q20">
-        <v>0.04923468437777778</v>
-      </c>
-      <c r="R20">
-        <v>0.4431121594</v>
-      </c>
-      <c r="S20">
-        <v>0.002659529566835064</v>
-      </c>
-      <c r="T20">
-        <v>0.002659529566835064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.32239</v>
-      </c>
-      <c r="I21">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J21">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.5302796666666666</v>
-      </c>
-      <c r="N21">
-        <v>1.590839</v>
-      </c>
-      <c r="O21">
-        <v>0.1702735634403321</v>
-      </c>
-      <c r="P21">
-        <v>0.1702735634403321</v>
-      </c>
-      <c r="Q21">
-        <v>0.05698562057888888</v>
-      </c>
-      <c r="R21">
-        <v>0.51287058521</v>
-      </c>
-      <c r="S21">
-        <v>0.003078214976481182</v>
-      </c>
-      <c r="T21">
-        <v>0.003078214976481182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.32239</v>
-      </c>
-      <c r="I22">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J22">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.09003133333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.270094</v>
-      </c>
-      <c r="O22">
-        <v>0.0289091905867615</v>
-      </c>
-      <c r="P22">
-        <v>0.0289091905867615</v>
-      </c>
-      <c r="Q22">
-        <v>0.009675067184444445</v>
-      </c>
-      <c r="R22">
-        <v>0.08707560466</v>
-      </c>
-      <c r="S22">
-        <v>0.000522621959769473</v>
-      </c>
-      <c r="T22">
-        <v>0.0005226219597694729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.32239</v>
-      </c>
-      <c r="I23">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J23">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.528969</v>
-      </c>
-      <c r="N23">
-        <v>4.586907</v>
-      </c>
-      <c r="O23">
-        <v>0.4909541443599282</v>
-      </c>
-      <c r="P23">
-        <v>0.4909541443599281</v>
-      </c>
-      <c r="Q23">
-        <v>0.1643081053033333</v>
-      </c>
-      <c r="R23">
-        <v>1.47877294773</v>
-      </c>
-      <c r="S23">
-        <v>0.008875496403549557</v>
-      </c>
-      <c r="T23">
-        <v>0.008875496403549555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.32239</v>
-      </c>
-      <c r="I24">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J24">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.2628333333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.7885</v>
-      </c>
-      <c r="O24">
-        <v>0.084396161253717</v>
-      </c>
-      <c r="P24">
-        <v>0.084396161253717</v>
-      </c>
-      <c r="Q24">
-        <v>0.02824494611111111</v>
-      </c>
-      <c r="R24">
-        <v>0.254204515</v>
-      </c>
-      <c r="S24">
-        <v>0.001525718510141763</v>
-      </c>
-      <c r="T24">
-        <v>0.001525718510141763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.32239</v>
-      </c>
-      <c r="I25">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J25">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.244014</v>
-      </c>
-      <c r="N25">
-        <v>0.7320420000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.07835324626061321</v>
-      </c>
-      <c r="P25">
-        <v>0.0783532462606132</v>
-      </c>
-      <c r="Q25">
-        <v>0.02622255782000001</v>
-      </c>
-      <c r="R25">
-        <v>0.23600302038</v>
-      </c>
-      <c r="S25">
-        <v>0.001416474355867085</v>
-      </c>
-      <c r="T25">
-        <v>0.001416474355867085</v>
+        <v>0.003969238788388992</v>
       </c>
     </row>
   </sheetData>
